--- a/MultiMatrices_with_MPI/Matrices graficas.xlsx
+++ b/MultiMatrices_with_MPI/Matrices graficas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\HPC\MultiMatrices_with_openMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\HPC\MultiMatrices_with_MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E60DAC-98E8-4B88-88DF-DD08B47B95C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8BEE5-E5E9-43D5-BBF4-0FE9F458D23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FFB9B30-AF98-4DF0-89D6-4755494F814C}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Procesos 8</t>
   </si>
   <si>
-    <t>Procesos 4</t>
-  </si>
-  <si>
     <t>Procesos 2</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>SpeedUP</t>
+  </si>
+  <si>
+    <t>MPI 4P</t>
   </si>
 </sst>
 </file>
@@ -639,15 +639,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$95</c:f>
+              <c:f>Hoja1!$K$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>MPI 4P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -655,7 +655,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -666,33 +668,33 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$107:$I$107</c:f>
+              <c:f>Hoja1!$L$42:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.4641000000000012E-3</c:v>
+                  <c:v>4.8930000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4799499999999998E-2</c:v>
+                  <c:v>1.2276000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10963820000000002</c:v>
+                  <c:v>3.5137999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.050673</c:v>
+                  <c:v>1.22705E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.339753700000001</c:v>
+                  <c:v>2.6593300000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.900952999999998</c:v>
+                  <c:v>4.63007E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.017624800000007</c:v>
+                  <c:v>7.1802700000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>302.76423250000005</c:v>
+                  <c:v>0.27996889999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,7 +702,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCC0-442A-AE7F-013C69FD802E}"/>
+              <c16:uniqueId val="{00000002-6C55-4532-A50B-3768B3ECE3C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -714,6 +716,90 @@
         </c:dLbls>
         <c:axId val="1783936544"/>
         <c:axId val="1558751168"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>OpenMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$107:$I$107</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.4641000000000012E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.4799499999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.10963820000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.050673</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.339753700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16.900952999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>35.017624800000007</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>302.76423250000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BCC0-442A-AE7F-013C69FD802E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1783936544"/>
@@ -780,7 +866,9 @@
       <c:valAx>
         <c:axId val="1558751168"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1143,7 +1231,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Procesos 4</c:v>
+                    <c:v>MPI 4P</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0,34109953</c:v>
@@ -1765,15 +1853,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$95</c:f>
+              <c:f>Hoja1!$K$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>MPI 4P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,7 +1869,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1792,11 +1880,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1804,33 +1892,33 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$108:$I$108</c:f>
+              <c:f>Hoja1!$L$43:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8179902427759012E-2</c:v>
+                  <c:v>0.34109952994073173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0336835703908918</c:v>
+                  <c:v>12.461713913326816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8657493464868995</c:v>
+                  <c:v>27.013261995560363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83081272669993422</c:v>
+                  <c:v>71.139114135528303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86111362654356727</c:v>
+                  <c:v>205.28660602482577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88925242854648512</c:v>
+                  <c:v>324.60013563509841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89638593077849149</c:v>
+                  <c:v>437.16052738963839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87928874128155143</c:v>
+                  <c:v>950.88126181157998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,7 +1926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A2B-4617-B01C-BB0D4D411F73}"/>
+              <c16:uniqueId val="{00000000-A63E-4433-9269-842B7619066D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1852,6 +1940,102 @@
         </c:dLbls>
         <c:axId val="1856759696"/>
         <c:axId val="1586747152"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>OpenMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$108:$I$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.8179902427759012E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0336835703908918</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.8657493464868995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.83081272669993422</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.86111362654356727</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.88925242854648512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.89638593077849149</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.87928874128155143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1A2B-4617-B01C-BB0D4D411F73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1856759696"/>
@@ -2686,7 +2870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Procesos 4</c:v>
+                  <c:v>MPI 4P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3152,84 +3336,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$95</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$108:$I$108</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.8179902427759012E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0336835703908918</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8657493464868995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83081272669993422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86111362654356727</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88925242854648512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89638593077849149</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87928874128155143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A526-4237-8FAF-CD68464704D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -3307,6 +3413,84 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI 4P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$L$43:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34109952994073173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.461713913326816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.013261995560363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.139114135528303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.28660602482577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>324.60013563509841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.16052738963839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950.88126181157998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2224-4FB6-9DED-E7FAB8682124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3317,6 +3501,102 @@
         </c:dLbls>
         <c:axId val="1782079472"/>
         <c:axId val="1782089552"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>OpenMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$108:$I$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.8179902427759012E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0336835703908918</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.8657493464868995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.83081272669993422</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.86111362654356727</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.88925242854648512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.89638593077849149</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.87928874128155143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A526-4237-8FAF-CD68464704D0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1782079472"/>
@@ -7381,8 +7661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ED6A3-66F0-49CE-A367-11AE337E1FCC}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F95" workbookViewId="0">
-      <selection activeCell="X122" sqref="X122"/>
+    <sheetView tabSelected="1" topLeftCell="J104" workbookViewId="0">
+      <selection activeCell="X135" sqref="X135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8507,7 +8787,7 @@
         <v>0.94486087771797067</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28">
         <f>B12/L27</f>
@@ -9304,7 +9584,7 @@
         <v>0.83503314365454895</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L43">
         <f>B12/L42</f>
@@ -10919,7 +11199,7 @@
         <v>0.73935791388675953</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L74">
         <f>B12/L73</f>
@@ -11750,7 +12030,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
         <v>13</v>
@@ -12446,7 +12726,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B108">
         <f>B12/B107</f>
@@ -12492,7 +12772,7 @@
         <v>3.3927700155245066</v>
       </c>
       <c r="N108">
-        <f t="shared" ref="M108:S108" si="92">D12/N107</f>
+        <f t="shared" ref="N108:S108" si="92">D12/N107</f>
         <v>3.3480726903324118</v>
       </c>
       <c r="O108">
